--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393690.7002192549</v>
+        <v>424873.6008350425</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25719466.47930255</v>
+        <v>25670974.26502849</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3967078.054722091</v>
+        <v>3974200.777866048</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2098565259836</v>
+        <v>422.3829546421688</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>351.7325061083228</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>261.0869926630976</v>
       </c>
       <c r="J2" t="n">
-        <v>147.6228773539549</v>
+        <v>162.3143635925344</v>
       </c>
       <c r="K2" t="n">
-        <v>146.2937966433331</v>
+        <v>168.3125261400351</v>
       </c>
       <c r="L2" t="n">
-        <v>126.9764245374035</v>
+        <v>154.2926055073104</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>124.8958564049782</v>
       </c>
       <c r="N2" t="n">
-        <v>89.2146190330682</v>
+        <v>120.1009486492963</v>
       </c>
       <c r="O2" t="n">
-        <v>103.9426526760898</v>
+        <v>133.1077378995006</v>
       </c>
       <c r="P2" t="n">
-        <v>139.680036893329</v>
+        <v>164.571762373416</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.058175334102</v>
+        <v>194.7508245283041</v>
       </c>
       <c r="R2" t="n">
-        <v>228.5844930892465</v>
+        <v>239.4578676300695</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>239.8791548312346</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>220.2295873715467</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.8050241821725</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,49 +22640,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.1232511341013</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.7961590004629</v>
       </c>
       <c r="I3" t="n">
-        <v>120.1229753234883</v>
+        <v>123.3117161513045</v>
       </c>
       <c r="J3" t="n">
-        <v>115.7222665296193</v>
+        <v>124.4724150865607</v>
       </c>
       <c r="K3" t="n">
-        <v>82.33179439963286</v>
+        <v>97.28719198660247</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>62.38360890470057</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>44.20335571074335</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>24.0877888342263</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>54.86031830440348</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>72.59045350613277</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.4467558195075</v>
+        <v>122.2690632147641</v>
       </c>
       <c r="R3" t="n">
-        <v>167.2007429781635</v>
+        <v>172.9510379028218</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>210.0338387512474</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.531758587936</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6566784703109</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.3251638988583</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>168.3847631879418</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>170.4656091971622</v>
       </c>
       <c r="J4" t="n">
-        <v>141.954478094628</v>
+        <v>147.4440401000583</v>
       </c>
       <c r="K4" t="n">
-        <v>116.743939294024</v>
+        <v>125.7649759957597</v>
       </c>
       <c r="L4" t="n">
-        <v>105.2130294320152</v>
+        <v>116.7568505760046</v>
       </c>
       <c r="M4" t="n">
-        <v>106.1190149462079</v>
+        <v>118.290355779387</v>
       </c>
       <c r="N4" t="n">
-        <v>91.98803323375212</v>
+        <v>103.8699667862026</v>
       </c>
       <c r="O4" t="n">
-        <v>114.9738096506548</v>
+        <v>125.9486984330169</v>
       </c>
       <c r="P4" t="n">
-        <v>126.5396865805459</v>
+        <v>135.9305999044811</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.7278282134153</v>
+        <v>176.2296098299793</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>225.135364984725</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>245.2740958228449</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.4745271856732</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2245317595696</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22802,7 +22804,7 @@
         <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>254.4136275388651</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
         <v>147.6228773539549</v>
@@ -22814,16 +22816,16 @@
         <v>126.9764245374035</v>
       </c>
       <c r="M5" t="n">
-        <v>94.50134181136153</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>89.21461903306823</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
         <v>103.9426526760898</v>
       </c>
       <c r="P5" t="n">
-        <v>139.6800368933291</v>
+        <v>139.680036893329</v>
       </c>
       <c r="Q5" t="n">
         <v>176.058175334102</v>
@@ -22887,19 +22889,19 @@
         <v>115.7222665296193</v>
       </c>
       <c r="K6" t="n">
-        <v>82.33179439963288</v>
+        <v>82.33179439963286</v>
       </c>
       <c r="L6" t="n">
-        <v>42.27423123832554</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>20.73666047215161</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>32.82469745261386</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
         <v>54.90492507792075</v>
@@ -22911,7 +22913,7 @@
         <v>167.2007429781635</v>
       </c>
       <c r="S6" t="n">
-        <v>208.3135435403173</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
         <v>230.1584524961191</v>
@@ -22975,10 +22977,10 @@
         <v>106.1190149462079</v>
       </c>
       <c r="N7" t="n">
-        <v>91.98803323375213</v>
+        <v>91.98803323375212</v>
       </c>
       <c r="O7" t="n">
-        <v>114.9738096506549</v>
+        <v>114.9738096506548</v>
       </c>
       <c r="P7" t="n">
         <v>126.5396865805459</v>
@@ -23033,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0122761090905</v>
+        <v>422.0568960504157</v>
       </c>
       <c r="H8" t="n">
-        <v>347.9362945814338</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I8" t="n">
-        <v>246.7964085165935</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J8" t="n">
-        <v>130.8534864456736</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K8" t="n">
-        <v>121.1608266879666</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L8" t="n">
-        <v>95.79675289854455</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M8" t="n">
-        <v>59.80794943357978</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N8" t="n">
-        <v>53.95985129578895</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O8" t="n">
-        <v>70.65257520929134</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P8" t="n">
-        <v>111.2677259685792</v>
+        <v>117.6841293060644</v>
       </c>
       <c r="Q8" t="n">
-        <v>154.7217130893366</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R8" t="n">
-        <v>216.1732322265849</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S8" t="n">
-        <v>231.4323177587111</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T8" t="n">
-        <v>218.6069420929961</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7753698995262</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,22 +23114,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.9249206340679</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H9" t="n">
-        <v>136.8807039080351</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I9" t="n">
-        <v>116.4832318299792</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J9" t="n">
-        <v>105.7345321864755</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K9" t="n">
-        <v>65.26116558427972</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L9" t="n">
-        <v>19.32066414964208</v>
+        <v>24.50430953720272</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>7.672447096896008</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P9" t="n">
-        <v>34.71802670589571</v>
+        <v>39.27687031530112</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.95234885962378</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R9" t="n">
-        <v>160.6371494884675</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S9" t="n">
-        <v>206.3499367001885</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T9" t="n">
-        <v>229.7323474935032</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6436304110982</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1588902699836</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H10" t="n">
-        <v>166.9064394694012</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I10" t="n">
-        <v>165.4653077033664</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J10" t="n">
-        <v>135.6884945386166</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K10" t="n">
-        <v>106.4470034774074</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L10" t="n">
-        <v>92.03649669766878</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M10" t="n">
-        <v>92.22620866405467</v>
+        <v>95.36364612318765</v>
       </c>
       <c r="N10" t="n">
-        <v>78.4255668330396</v>
+        <v>81.48840304191191</v>
       </c>
       <c r="O10" t="n">
-        <v>102.4466767807993</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P10" t="n">
-        <v>115.8205602813076</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q10" t="n">
-        <v>162.3064607793891</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R10" t="n">
-        <v>217.6590979991405</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S10" t="n">
-        <v>242.376399945092</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T10" t="n">
-        <v>217.7640853168449</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2154622889037</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H11" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I11" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J11" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L11" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M11" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P11" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R11" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S11" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I12" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J12" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K12" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R12" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S12" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I13" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J13" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K13" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L13" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M13" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N13" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O13" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P13" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R13" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S13" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U13" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H14" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I14" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J14" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K14" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P14" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R14" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S14" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I15" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J15" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K15" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R15" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S15" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I16" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J16" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K16" t="n">
-        <v>90.6868336868295</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L16" t="n">
-        <v>71.86890540227661</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M16" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N16" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O16" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P16" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R16" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S16" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U16" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H17" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I17" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J17" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R17" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S17" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I18" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J18" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R18" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I19" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J19" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K19" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L19" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M19" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N19" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O19" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P19" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R19" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S19" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U19" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H20" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I20" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J20" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R20" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S20" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I21" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J21" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R21" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I22" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J22" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K22" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L22" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M22" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N22" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O22" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P22" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R22" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S22" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U22" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H23" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I23" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J23" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R23" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I24" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J24" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R24" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J25" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K25" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L25" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M25" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N25" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O25" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P25" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R25" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S25" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U25" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H26" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I26" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J26" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R26" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S26" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I27" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J27" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R27" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J28" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K28" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L28" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M28" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N28" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O28" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P28" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R28" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S28" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U28" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H29" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I29" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J29" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.064787408095</v>
+        <v>118.0266323309351</v>
       </c>
       <c r="R29" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S29" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I30" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J30" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654079</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079405</v>
       </c>
       <c r="R30" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I31" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J31" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K31" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029915</v>
       </c>
       <c r="L31" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M31" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145385</v>
       </c>
       <c r="N31" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874974</v>
       </c>
       <c r="O31" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816706</v>
       </c>
       <c r="P31" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704082</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R31" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S31" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U31" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I32" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J32" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K32" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R32" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S32" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I33" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J33" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R33" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I34" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J34" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K34" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L34" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M34" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N34" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O34" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P34" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R34" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S34" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U34" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I35" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J35" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R35" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I36" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J36" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R36" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I37" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J37" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K37" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L37" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M37" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N37" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O37" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P37" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q37" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R37" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S37" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U37" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I38" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J38" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R38" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S38" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I39" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J39" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R39" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S39" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I40" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J40" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K40" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L40" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M40" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N40" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O40" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P40" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q40" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R40" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S40" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U40" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H41" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I41" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J41" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R41" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I42" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J42" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R42" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I43" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J43" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K43" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L43" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M43" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N43" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O43" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P43" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R43" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S43" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U43" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J44" t="n">
-        <v>105.186778144686</v>
+        <v>102.012990463283</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.064787408095</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R44" t="n">
-        <v>197.1769422628221</v>
+        <v>194.8279775895052</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I45" t="n">
-        <v>110.912353612084</v>
+        <v>110.2234929893967</v>
       </c>
       <c r="J45" t="n">
-        <v>90.44761655696213</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.29822915852546</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R45" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3488866824438</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J46" t="n">
-        <v>126.0979749407038</v>
+        <v>124.9120701257518</v>
       </c>
       <c r="K46" t="n">
-        <v>90.68683368682949</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L46" t="n">
-        <v>71.8689054022766</v>
+        <v>69.37510479230811</v>
       </c>
       <c r="M46" t="n">
-        <v>70.962311348019</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N46" t="n">
-        <v>57.66727746803184</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O46" t="n">
-        <v>83.27303672572057</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P46" t="n">
-        <v>99.41419886551341</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9475465430031</v>
+        <v>149.5429728962854</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>272729.1956216568</v>
+        <v>238528.8874859864</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>272729.1956216567</v>
+        <v>272729.1956216568</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>309917.72679913</v>
+        <v>301777.5006541265</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565718</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362517.3038146386</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94406.26002288119</v>
+        <v>82567.6918220722</v>
       </c>
       <c r="C2" t="n">
         <v>94406.26002288119</v>
       </c>
       <c r="D2" t="n">
-        <v>107279.2131227756</v>
+        <v>104461.4425341206</v>
       </c>
       <c r="E2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="F2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="G2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="H2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="I2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="J2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="K2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926594</v>
       </c>
       <c r="L2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="M2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="N2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="O2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
       <c r="P2" t="n">
-        <v>125486.7590127594</v>
+        <v>127435.5037926595</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>289380.3549209846</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39208.84333514157</v>
       </c>
       <c r="D3" t="n">
-        <v>42091.1454943319</v>
+        <v>32585.62631485736</v>
       </c>
       <c r="E3" t="n">
-        <v>60435.6673791739</v>
+        <v>76825.91016684116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41112.97456555201</v>
+        <v>40174.30675600834</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>42184.4037712591</v>
+        <v>41942.44098443807</v>
       </c>
       <c r="E5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="F5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-277578.468727775</v>
+        <v>-246986.9698549207</v>
       </c>
       <c r="C6" t="n">
-        <v>53293.28545732918</v>
+        <v>14084.44212218761</v>
       </c>
       <c r="D6" t="n">
-        <v>23003.66385718464</v>
+        <v>29933.3752348252</v>
       </c>
       <c r="E6" t="n">
-        <v>54854.39163482169</v>
+        <v>40210.11412044223</v>
       </c>
       <c r="F6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="G6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="H6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="I6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="J6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="K6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="L6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="M6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="N6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="O6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
       <c r="P6" t="n">
-        <v>115290.0590139956</v>
+        <v>117036.0242872834</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>300.3076493581807</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
       </c>
-      <c r="C3" t="n">
-        <v>343.3658057592665</v>
-      </c>
       <c r="D3" t="n">
-        <v>392.5139344614268</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="E3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="F3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="G3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="H3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="I3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="J3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="L3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="N3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="O3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>300.3076493581807</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>43.05815640108585</v>
       </c>
       <c r="D3" t="n">
-        <v>49.14812870216029</v>
+        <v>38.04891829752592</v>
       </c>
       <c r="E3" t="n">
-        <v>75.22459759196057</v>
+        <v>95.62562022651292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.207266932093188</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>12.36392246829936</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>46.54315839952267</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>102.4652717777443</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>153.568881013249</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562029</v>
+        <v>190.5157763862959</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>211.9855096899081</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>215.4156568607179</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>203.4108963047163</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>173.6064939186656</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>130.3712469130783</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>75.83598142309877</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>27.51059521507354</v>
       </c>
       <c r="T2" t="n">
-        <v>6.04254799883895</v>
+        <v>5.284810995237932</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.09658135456745501</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.6459447552232567</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>6.238466451761453</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>22.23976459869546</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>61.02761391343935</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003672</v>
+        <v>104.3059125133975</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>140.2521715233654</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>163.6676689002085</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>167.9994650876487</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>153.6866891955965</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>123.3471173373252</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>82.45428138604238</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>40.10523664447555</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>11.99814051916882</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.603610658114792</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.04249636547521426</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5415383840885225</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>4.814768542168867</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>16.28553613240757</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>38.28676375505854</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>62.91691407864833</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>80.51198848530635</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>84.88860324398539</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>82.87014199420096</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>76.5439890528032</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>65.49660601739728</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>45.34645505308529</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>24.34953497910756</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>9.437537111797248</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.313845822923687</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.02953845731391944</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,25 +31278,25 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.380365048278457</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.13666355068175</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>53.21652352375527</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
         <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>175.5876105099509</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562028</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>242.3800242835248</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
         <v>246.301986476946</v>
@@ -31303,19 +31305,19 @@
         <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>198.4982193987526</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
         <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>86.70935596392171</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>31.45506853764537</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.042547998838949</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
         <v>0.1104292038622766</v>
@@ -31355,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
         <v>7.132938719640613</v>
@@ -31364,10 +31366,10 @@
         <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>69.77776247038076</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003671</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
         <v>160.3615491897405</v>
@@ -31397,7 +31399,7 @@
         <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
         <v>5.505110787419063</v>
@@ -31443,37 +31445,37 @@
         <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>43.77632576048877</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>71.937950780384</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>92.05580962929581</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
         <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>94.75207554665141</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>87.5188778351652</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>74.88751934133245</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>51.84823666964924</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>27.84077500467756</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
         <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.64560538863697</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
         <v>0.03377368581238691</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.577945465171564</v>
+        <v>1.5333255238464</v>
       </c>
       <c r="H8" t="n">
-        <v>16.16013399518828</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I8" t="n">
-        <v>60.83374254602678</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J8" t="n">
-        <v>133.9261489246051</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K8" t="n">
-        <v>200.7205804653175</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L8" t="n">
-        <v>249.0116289950618</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M8" t="n">
-        <v>277.0734166613066</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N8" t="n">
-        <v>281.5567542142253</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O8" t="n">
-        <v>265.8660589949255</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P8" t="n">
-        <v>226.9105303235025</v>
+        <v>220.4941269860173</v>
       </c>
       <c r="Q8" t="n">
-        <v>170.4003583520458</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R8" t="n">
-        <v>99.12061682658333</v>
+        <v>96.31775943731652</v>
       </c>
       <c r="S8" t="n">
-        <v>35.95743228759704</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T8" t="n">
-        <v>6.907456273788524</v>
+        <v>6.712132480637621</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1262356372137251</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8442752552566539</v>
+        <v>0.8204014819334779</v>
       </c>
       <c r="H9" t="n">
-        <v>8.153921544189265</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I9" t="n">
-        <v>29.06824892002076</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J9" t="n">
-        <v>79.76549681352449</v>
+        <v>77.50994878214496</v>
       </c>
       <c r="K9" t="n">
-        <v>136.3319389157203</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L9" t="n">
-        <v>183.3151162784239</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M9" t="n">
         <v>207.8710246109518</v>
@@ -31616,25 +31618,25 @@
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>200.874560403104</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P9" t="n">
-        <v>161.2195441375623</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7709957411827</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R9" t="n">
-        <v>52.41912505882981</v>
+        <v>50.93685692215052</v>
       </c>
       <c r="S9" t="n">
-        <v>15.68204257022775</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T9" t="n">
-        <v>3.403021752547652</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05554442468793778</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7078120129632286</v>
+        <v>0.6877970433811009</v>
       </c>
       <c r="H10" t="n">
-        <v>6.293092260709437</v>
+        <v>6.115140985697429</v>
       </c>
       <c r="I10" t="n">
-        <v>21.28583762620328</v>
+        <v>20.68393290458802</v>
       </c>
       <c r="J10" t="n">
-        <v>50.04230931650026</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K10" t="n">
-        <v>82.23488659700054</v>
+        <v>79.90951104009515</v>
       </c>
       <c r="L10" t="n">
-        <v>105.2323423636422</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M10" t="n">
-        <v>110.9527503593177</v>
+        <v>107.8153129001847</v>
       </c>
       <c r="N10" t="n">
-        <v>108.3145419473639</v>
+        <v>105.2517057384916</v>
       </c>
       <c r="O10" t="n">
-        <v>100.0460107050207</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P10" t="n">
-        <v>85.60664564057082</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.26960410367545</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R10" t="n">
-        <v>31.82580196469207</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S10" t="n">
-        <v>12.33523298955008</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T10" t="n">
-        <v>3.024287691751976</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03860792797981251</v>
+        <v>0.03751620236624191</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H11" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I11" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J11" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K11" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L11" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M11" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P11" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R11" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S11" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H12" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I12" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J12" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R12" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S12" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T12" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I13" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J13" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L13" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M13" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N13" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O13" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P13" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R13" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S13" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T13" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H14" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I14" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K14" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L14" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M14" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P14" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R14" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S14" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T14" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H15" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I15" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J15" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R15" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S15" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T15" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I16" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J16" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K16" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L16" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M16" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N16" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O16" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P16" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R16" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S16" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T16" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M17" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R17" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S17" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I18" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K18" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S18" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I19" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J19" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L19" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M19" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N19" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O19" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P19" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R19" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T19" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H20" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M20" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R20" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S20" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I21" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K21" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S21" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J22" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L22" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N22" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O22" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P22" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R22" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T22" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H23" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M23" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R23" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S23" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I24" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S24" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I25" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J25" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L25" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M25" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N25" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P25" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R25" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T25" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M26" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R26" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S26" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T26" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I27" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S27" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I28" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J28" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K28" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M28" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N28" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O28" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P28" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R28" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T28" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H29" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M29" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R29" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S29" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I30" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K30" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S30" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I31" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J31" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L31" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M31" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N31" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O31" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P31" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R31" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T31" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H32" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M32" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R32" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S32" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T32" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I33" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S33" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I34" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J34" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K34" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L34" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M34" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N34" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O34" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P34" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R34" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T34" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H35" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M35" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R35" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S35" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T35" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I36" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K36" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S36" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J37" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K37" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L37" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M37" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N37" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O37" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P37" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R37" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T37" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H38" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M38" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R38" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S38" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I39" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S39" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I40" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J40" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L40" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M40" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O40" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P40" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R40" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T40" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H41" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M41" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R41" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S41" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T41" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I42" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S42" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I43" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J43" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K43" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N43" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O43" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P43" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R43" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T43" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>424873.6008350425</v>
+        <v>278954.0977699684</v>
       </c>
     </row>
     <row r="7">
@@ -24706,25 +24706,25 @@
         <v>102.012990463283</v>
       </c>
       <c r="K29" t="n">
-        <v>77.93639933769612</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L29" t="n">
-        <v>42.17302860521357</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.39931236355858</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P29" t="n">
-        <v>62.40339073079667</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q29" t="n">
-        <v>118.0266323309351</v>
+        <v>118.026632330935</v>
       </c>
       <c r="R29" t="n">
         <v>194.8279775895052</v>
@@ -24782,10 +24782,10 @@
         <v>110.2234929893967</v>
       </c>
       <c r="J30" t="n">
-        <v>88.55733035654079</v>
+        <v>88.55733035654077</v>
       </c>
       <c r="K30" t="n">
-        <v>35.90259171246745</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.74426743079405</v>
+        <v>73.74426743079403</v>
       </c>
       <c r="R30" t="n">
         <v>149.3488866824438</v>
@@ -24864,22 +24864,22 @@
         <v>124.9120701257518</v>
       </c>
       <c r="K31" t="n">
-        <v>88.73802778029915</v>
+        <v>88.73802778029913</v>
       </c>
       <c r="L31" t="n">
         <v>69.37510479230811</v>
       </c>
       <c r="M31" t="n">
-        <v>68.33294826145385</v>
+        <v>68.33294826145382</v>
       </c>
       <c r="N31" t="n">
-        <v>55.10043475874974</v>
+        <v>55.10043475874971</v>
       </c>
       <c r="O31" t="n">
-        <v>80.90214202816706</v>
+        <v>80.90214202816705</v>
       </c>
       <c r="P31" t="n">
-        <v>97.38548886704082</v>
+        <v>97.38548886704081</v>
       </c>
       <c r="Q31" t="n">
         <v>149.5429728962854</v>
@@ -24891,7 +24891,7 @@
         <v>239.7200535905258</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U31" t="n">
         <v>291.2071482158065</v>
@@ -24943,25 +24943,25 @@
         <v>102.012990463283</v>
       </c>
       <c r="K32" t="n">
-        <v>77.93639933769609</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L32" t="n">
-        <v>42.17302860521352</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M32" t="n">
-        <v>0.141223971726788</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.39931236355852</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P32" t="n">
-        <v>62.40339073079662</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q32" t="n">
-        <v>118.026632330935</v>
+        <v>118.0266323309351</v>
       </c>
       <c r="R32" t="n">
         <v>194.8279775895052</v>
@@ -25019,10 +25019,10 @@
         <v>110.2234929893967</v>
       </c>
       <c r="J33" t="n">
-        <v>88.55733035654077</v>
+        <v>88.55733035654079</v>
       </c>
       <c r="K33" t="n">
-        <v>35.90259171246743</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.74426743079403</v>
+        <v>73.74426743079405</v>
       </c>
       <c r="R33" t="n">
         <v>149.3488866824438</v>
@@ -25101,22 +25101,22 @@
         <v>124.9120701257518</v>
       </c>
       <c r="K34" t="n">
-        <v>88.73802778029913</v>
+        <v>88.73802778029915</v>
       </c>
       <c r="L34" t="n">
         <v>69.37510479230811</v>
       </c>
       <c r="M34" t="n">
-        <v>68.33294826145382</v>
+        <v>68.33294826145385</v>
       </c>
       <c r="N34" t="n">
-        <v>55.10043475874971</v>
+        <v>55.10043475874974</v>
       </c>
       <c r="O34" t="n">
-        <v>80.90214202816705</v>
+        <v>80.90214202816706</v>
       </c>
       <c r="P34" t="n">
-        <v>97.38548886704081</v>
+        <v>97.38548886704082</v>
       </c>
       <c r="Q34" t="n">
         <v>149.5429728962854</v>
@@ -25128,7 +25128,7 @@
         <v>239.7200535905258</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U34" t="n">
         <v>291.2071482158065</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>368147.0109565718</v>
+        <v>368147.0109565719</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>368147.0109565719</v>
+        <v>368147.0109565718</v>
       </c>
     </row>
     <row r="13">
@@ -26340,22 +26340,22 @@
         <v>127435.5037926595</v>
       </c>
       <c r="K2" t="n">
+        <v>127435.5037926595</v>
+      </c>
+      <c r="L2" t="n">
         <v>127435.5037926594</v>
       </c>
-      <c r="L2" t="n">
-        <v>127435.5037926595</v>
-      </c>
       <c r="M2" t="n">
-        <v>127435.5037926595</v>
+        <v>127435.5037926594</v>
       </c>
       <c r="N2" t="n">
-        <v>127435.5037926595</v>
+        <v>127435.5037926594</v>
       </c>
       <c r="O2" t="n">
         <v>127435.5037926595</v>
       </c>
       <c r="P2" t="n">
-        <v>127435.5037926595</v>
+        <v>127435.5037926594</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246986.9698549207</v>
+        <v>-266220.0121892356</v>
       </c>
       <c r="C6" t="n">
-        <v>14084.44212218761</v>
+        <v>-4490.901978749</v>
       </c>
       <c r="D6" t="n">
-        <v>29933.3752348252</v>
+        <v>11916.65238451301</v>
       </c>
       <c r="E6" t="n">
-        <v>40210.11412044223</v>
+        <v>23469.72800671552</v>
       </c>
       <c r="F6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="G6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="H6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="I6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="J6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="K6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="L6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="M6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="N6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="O6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
       <c r="P6" t="n">
-        <v>117036.0242872834</v>
+        <v>100295.6381735567</v>
       </c>
     </row>
   </sheetData>
@@ -33180,40 +33180,40 @@
         <v>19.64015849604582</v>
       </c>
       <c r="I29" t="n">
-        <v>73.93406180093318</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J29" t="n">
         <v>162.7666449069957</v>
       </c>
       <c r="K29" t="n">
-        <v>243.9450078155879</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L29" t="n">
         <v>302.6353532883928</v>
       </c>
       <c r="M29" t="n">
-        <v>336.7401421231595</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>323.1193218406583</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P29" t="n">
-        <v>275.774865561285</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.0954391104473</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R29" t="n">
         <v>120.465871463663</v>
       </c>
       <c r="S29" t="n">
-        <v>43.70073103660631</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T29" t="n">
-        <v>8.394951184322284</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U29" t="n">
         <v>0.1534200102217664</v>
@@ -33259,10 +33259,10 @@
         <v>9.909838095394703</v>
       </c>
       <c r="I30" t="n">
-        <v>35.32798776060327</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J30" t="n">
-        <v>96.94269864345925</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K30" t="n">
         <v>165.6905127875326</v>
@@ -33283,7 +33283,7 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.9790771700124</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R30" t="n">
         <v>63.70738786485352</v>
@@ -33292,7 +33292,7 @@
         <v>19.05911186829997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.135849777324126</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U30" t="n">
         <v>0.06750570909669418</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H31" t="n">
         <v>7.648286175558572</v>
@@ -33341,16 +33341,16 @@
         <v>25.86966326047827</v>
       </c>
       <c r="J31" t="n">
-        <v>60.81873372936499</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K31" t="n">
-        <v>99.94386229410884</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L31" t="n">
         <v>127.8937342690029</v>
       </c>
       <c r="M31" t="n">
-        <v>134.8460107619185</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N31" t="n">
         <v>131.6396740216538</v>
@@ -33359,22 +33359,22 @@
         <v>121.590545457653</v>
       </c>
       <c r="P31" t="n">
-        <v>104.0417170548375</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q31" t="n">
         <v>72.0330919867791</v>
       </c>
       <c r="R31" t="n">
-        <v>38.67936955451191</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S31" t="n">
-        <v>14.99157934411632</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T31" t="n">
-        <v>3.675556751035301</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>19.64015849604582</v>
       </c>
       <c r="I32" t="n">
-        <v>73.93406180093319</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J32" t="n">
         <v>162.7666449069957</v>
       </c>
       <c r="K32" t="n">
-        <v>243.945007815588</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L32" t="n">
         <v>302.6353532883928</v>
       </c>
       <c r="M32" t="n">
-        <v>336.7401421231596</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>323.1193218406584</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P32" t="n">
-        <v>275.7748655612851</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.0954391104474</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R32" t="n">
         <v>120.465871463663</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70073103660632</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T32" t="n">
-        <v>8.394951184322286</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U32" t="n">
         <v>0.1534200102217664</v>
@@ -33496,10 +33496,10 @@
         <v>9.909838095394703</v>
       </c>
       <c r="I33" t="n">
-        <v>35.32798776060328</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J33" t="n">
-        <v>96.94269864345927</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K33" t="n">
         <v>165.6905127875326</v>
@@ -33520,7 +33520,7 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.9790771700125</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R33" t="n">
         <v>63.70738786485352</v>
@@ -33529,7 +33529,7 @@
         <v>19.05911186829997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.135849777324127</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U33" t="n">
         <v>0.06750570909669418</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H34" t="n">
         <v>7.648286175558572</v>
@@ -33578,16 +33578,16 @@
         <v>25.86966326047827</v>
       </c>
       <c r="J34" t="n">
-        <v>60.818733729365</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K34" t="n">
-        <v>99.94386229410885</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L34" t="n">
         <v>127.8937342690029</v>
       </c>
       <c r="M34" t="n">
-        <v>134.8460107619186</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N34" t="n">
         <v>131.6396740216538</v>
@@ -33596,22 +33596,22 @@
         <v>121.590545457653</v>
       </c>
       <c r="P34" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q34" t="n">
         <v>72.0330919867791</v>
       </c>
       <c r="R34" t="n">
-        <v>38.67936955451192</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S34" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T34" t="n">
-        <v>3.675556751035302</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
